--- a/TOC/Angular-Spring Boot-Microservices-TOC.xlsx
+++ b/TOC/Angular-Spring Boot-Microservices-TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="3" activeTab="7"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="22" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="783">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -2101,6 +2101,24 @@
     <t>11. Demo: Standing Up and Configuring an Authorization Server</t>
   </si>
   <si>
+    <t>12. Creating a Resource Server and Routing Tokens</t>
+  </si>
+  <si>
+    <t>13. Demo: Creating a Resource Server and Routing Tokens</t>
+  </si>
+  <si>
+    <t>14. OAuth 2.0 Grant Type: Resource Owner Password Credentials</t>
+  </si>
+  <si>
+    <t>15. OAuth 2.0 Grant Type: Client Credentials</t>
+  </si>
+  <si>
+    <t>16. Demo: Client Credentials Grant Type</t>
+  </si>
+  <si>
+    <t>17. Advanced Configuration Options</t>
+  </si>
+  <si>
     <t>18. Summary</t>
   </si>
   <si>
@@ -2642,10 +2660,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -2810,21 +2828,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2838,11 +2841,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2854,11 +2857,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2870,16 +2897,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2893,7 +2912,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2908,11 +2927,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2923,16 +2941,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2948,6 +2959,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2994,7 +3012,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3006,7 +3060,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3018,163 +3192,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3268,17 +3286,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3287,7 +3314,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3307,41 +3349,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3368,7 +3386,7 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3389,129 +3407,129 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8924,12 +8942,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
+      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -9631,83 +9649,83 @@
         <v>644</v>
       </c>
     </row>
-    <row r="98" ht="18" customHeight="1" spans="1:3">
+    <row r="98" customFormat="1" ht="17.1" customHeight="1" spans="1:3">
       <c r="A98" s="18"/>
       <c r="B98" s="21"/>
       <c r="C98" s="34" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="99" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
+    <row r="99" customFormat="1" ht="15.95" customHeight="1" spans="1:3">
       <c r="A99" s="18"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="34"/>
-    </row>
-    <row r="100" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A100" s="18" t="s">
+      <c r="B99" s="21"/>
+      <c r="C99" s="34" t="s">
         <v>646</v>
       </c>
-      <c r="B100" s="21" t="s">
+    </row>
+    <row r="100" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A100" s="18"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="34" t="s">
         <v>647</v>
       </c>
-      <c r="C100" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="101" customFormat="1" ht="15" customHeight="1" spans="1:3">
+    </row>
+    <row r="101" customFormat="1" ht="14.25" spans="1:3">
       <c r="A101" s="18"/>
       <c r="B101" s="21"/>
-      <c r="C101" t="s">
+      <c r="C101" s="34" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="102" customFormat="1" ht="15" customHeight="1" spans="1:3">
+    <row r="102" customFormat="1" ht="14.25" spans="1:3">
       <c r="A102" s="18"/>
       <c r="B102" s="21"/>
-      <c r="C102" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="103" customFormat="1" ht="15" customHeight="1" spans="1:3">
+      <c r="C102" s="34" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="103" customFormat="1" ht="14.25" spans="1:3">
       <c r="A103" s="18"/>
       <c r="B103" s="21"/>
-      <c r="C103" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="104" customFormat="1" ht="15" customHeight="1" spans="1:3">
+      <c r="C103" s="34" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="104" ht="18" customHeight="1" spans="1:3">
       <c r="A104" s="18"/>
       <c r="B104" s="21"/>
-      <c r="C104" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="105" customFormat="1" ht="15" customHeight="1" spans="1:3">
+      <c r="C104" s="34" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="105" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
       <c r="A105" s="18"/>
-      <c r="B105" s="21"/>
-      <c r="C105" t="s">
-        <v>651</v>
-      </c>
+      <c r="B105" s="22"/>
+      <c r="C105" s="34"/>
     </row>
     <row r="106" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A106" s="18"/>
-      <c r="B106" s="21"/>
+      <c r="A106" s="18" t="s">
+        <v>652</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>653</v>
+      </c>
       <c r="C106" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="107" customFormat="1" customHeight="1" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" customFormat="1" ht="15" customHeight="1" spans="1:3">
       <c r="A107" s="18"/>
       <c r="B107" s="21"/>
       <c r="C107" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="108" customFormat="1" customHeight="1" spans="1:3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="108" customFormat="1" ht="15" customHeight="1" spans="1:3">
       <c r="A108" s="18"/>
       <c r="B108" s="21"/>
       <c r="C108" t="s">
-        <v>654</v>
+        <v>604</v>
       </c>
     </row>
     <row r="109" customFormat="1" ht="15" customHeight="1" spans="1:3">
@@ -9731,290 +9749,290 @@
         <v>657</v>
       </c>
     </row>
-    <row r="112" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="112" customFormat="1" ht="15" customHeight="1" spans="1:3">
       <c r="A112" s="18"/>
       <c r="B112" s="21"/>
       <c r="C112" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="113" customFormat="1" spans="1:3">
+    <row r="113" customFormat="1" customHeight="1" spans="1:3">
       <c r="A113" s="18"/>
       <c r="B113" s="21"/>
       <c r="C113" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="114" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="114" customFormat="1" customHeight="1" spans="1:3">
       <c r="A114" s="18"/>
       <c r="B114" s="21"/>
       <c r="C114" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="115" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="115" customFormat="1" ht="15" customHeight="1" spans="1:3">
       <c r="A115" s="18"/>
       <c r="B115" s="21"/>
       <c r="C115" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="116" customFormat="1" ht="15" customHeight="1" spans="1:3">
+      <c r="A116" s="18"/>
+      <c r="B116" s="21"/>
+      <c r="C116" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="117" customFormat="1" ht="15" customHeight="1" spans="1:3">
+      <c r="A117" s="18"/>
+      <c r="B117" s="21"/>
+      <c r="C117" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="118" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A118" s="18"/>
+      <c r="B118" s="21"/>
+      <c r="C118" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="119" customFormat="1" spans="1:3">
+      <c r="A119" s="18"/>
+      <c r="B119" s="21"/>
+      <c r="C119" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="120" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A120" s="18"/>
+      <c r="B120" s="21"/>
+      <c r="C120" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="121" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A121" s="18"/>
+      <c r="B121" s="21"/>
+      <c r="C121" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="116" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A116" s="18"/>
-      <c r="B116" s="22" t="s">
+    <row r="122" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A122" s="18"/>
+      <c r="B122" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C116" s="23" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="117" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A117" s="18"/>
-      <c r="B117" s="22"/>
-      <c r="C117" s="34" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="118" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A118" s="24"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24"/>
-    </row>
-    <row r="119" ht="24.75" spans="1:3">
-      <c r="A119" s="16" t="s">
-        <v>663</v>
-      </c>
-      <c r="B119" s="16"/>
-      <c r="C119" s="16"/>
-    </row>
-    <row r="120" ht="24.75" spans="1:3">
-      <c r="A120" s="17" t="s">
-        <v>664</v>
-      </c>
-      <c r="B120" s="17"/>
-      <c r="C120" s="17"/>
-    </row>
-    <row r="121" ht="18" customHeight="1" spans="1:3">
-      <c r="A121" s="18" t="s">
-        <v>665</v>
-      </c>
-      <c r="B121" s="19" t="s">
+      <c r="C122" s="23" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="123" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A123" s="18"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="34" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="124" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A124" s="24"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="24"/>
+    </row>
+    <row r="125" ht="24.75" spans="1:3">
+      <c r="A125" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
+    </row>
+    <row r="126" ht="24.75" spans="1:3">
+      <c r="A126" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+    </row>
+    <row r="127" ht="18" customHeight="1" spans="1:3">
+      <c r="A127" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B127" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C121" s="20" t="s">
+      <c r="C127" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="122" ht="15" customHeight="1" spans="1:2">
-      <c r="A122" s="18"/>
-      <c r="B122" s="21"/>
-    </row>
-    <row r="123" ht="15" customHeight="1" spans="1:3">
-      <c r="A123" s="18"/>
-      <c r="B123" s="21" t="s">
-        <v>666</v>
-      </c>
-      <c r="C123" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="124" ht="15" customHeight="1" spans="1:3">
-      <c r="A124" s="18"/>
-      <c r="B124" s="21"/>
-      <c r="C124" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="125" ht="15" customHeight="1" spans="1:3">
-      <c r="A125" s="18"/>
-      <c r="B125" s="21"/>
-      <c r="C125" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="126" ht="15" customHeight="1" spans="1:3">
-      <c r="A126" s="18"/>
-      <c r="B126" s="21"/>
-      <c r="C126" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="127" ht="15" customHeight="1" spans="1:2">
-      <c r="A127" s="36"/>
-      <c r="B127" s="19"/>
-    </row>
-    <row r="128" ht="15" customHeight="1" spans="1:3">
-      <c r="A128" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B128" s="21" t="s">
+    <row r="128" ht="15" customHeight="1" spans="1:2">
+      <c r="A128" s="18"/>
+      <c r="B128" s="21"/>
+    </row>
+    <row r="129" ht="15" customHeight="1" spans="1:3">
+      <c r="A129" s="18"/>
+      <c r="B129" s="21" t="s">
         <v>672</v>
       </c>
-      <c r="C128" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="129" customHeight="1" spans="1:3">
-      <c r="A129" s="18"/>
-      <c r="B129" s="21"/>
       <c r="C129" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="130" customHeight="1" spans="1:3">
+    <row r="130" ht="15" customHeight="1" spans="1:3">
       <c r="A130" s="18"/>
       <c r="B130" s="21"/>
       <c r="C130" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="131" customHeight="1" spans="1:3">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="131" ht="15" customHeight="1" spans="1:3">
       <c r="A131" s="18"/>
       <c r="B131" s="21"/>
       <c r="C131" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1" spans="1:3">
       <c r="A132" s="18"/>
       <c r="B132" s="21"/>
       <c r="C132" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="133" ht="15" customHeight="1" spans="1:3">
-      <c r="A133" s="18"/>
-      <c r="B133" s="21"/>
-      <c r="C133" t="s">
         <v>676</v>
       </c>
     </row>
+    <row r="133" ht="15" customHeight="1" spans="1:2">
+      <c r="A133" s="36"/>
+      <c r="B133" s="19"/>
+    </row>
     <row r="134" ht="15" customHeight="1" spans="1:3">
-      <c r="A134" s="18"/>
-      <c r="B134" s="21"/>
+      <c r="A134" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>678</v>
+      </c>
       <c r="C134" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="135" ht="18.75" customHeight="1" spans="1:3">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:3">
       <c r="A135" s="18"/>
       <c r="B135" s="21"/>
       <c r="C135" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:3">
       <c r="A136" s="18"/>
       <c r="B136" s="21"/>
       <c r="C136" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="137" ht="18.75" customHeight="1" spans="1:3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:3">
       <c r="A137" s="18"/>
       <c r="B137" s="21"/>
       <c r="C137" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="138" ht="18.75" customHeight="1" spans="1:3">
+    <row r="138" ht="15" customHeight="1" spans="1:3">
       <c r="A138" s="18"/>
       <c r="B138" s="21"/>
       <c r="C138" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="139" customFormat="1" ht="27" customHeight="1" spans="1:3">
+    <row r="139" ht="15" customHeight="1" spans="1:3">
       <c r="A139" s="18"/>
       <c r="B139" s="21"/>
-      <c r="C139" s="37" t="s">
+      <c r="C139" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="140" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
+    <row r="140" ht="15" customHeight="1" spans="1:3">
       <c r="A140" s="18"/>
       <c r="B140" s="21"/>
-      <c r="C140" s="34" t="s">
+      <c r="C140" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="141" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
+    <row r="141" ht="18.75" customHeight="1" spans="1:3">
       <c r="A141" s="18"/>
       <c r="B141" s="21"/>
-      <c r="C141" s="34" t="s">
+      <c r="C141" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="142" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
+    <row r="142" spans="1:3">
       <c r="A142" s="18"/>
-      <c r="B142" s="22"/>
-      <c r="C142" s="34"/>
-    </row>
-    <row r="143" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A143" s="18" t="s">
+      <c r="B142" s="21"/>
+      <c r="C142" t="s">
         <v>685</v>
       </c>
-      <c r="B143" s="21" t="s">
+    </row>
+    <row r="143" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A143" s="18"/>
+      <c r="B143" s="21"/>
+      <c r="C143" t="s">
         <v>686</v>
       </c>
-      <c r="C143" s="34" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="144" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
+    </row>
+    <row r="144" ht="18.75" customHeight="1" spans="1:3">
       <c r="A144" s="18"/>
       <c r="B144" s="21"/>
-      <c r="C144" s="34" t="s">
+      <c r="C144" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="145" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
+    <row r="145" customFormat="1" ht="27" customHeight="1" spans="1:3">
       <c r="A145" s="18"/>
       <c r="B145" s="21"/>
-      <c r="C145" s="34" t="s">
-        <v>604</v>
+      <c r="C145" s="37" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="146" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
       <c r="A146" s="18"/>
       <c r="B146" s="21"/>
       <c r="C146" s="34" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="147" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
       <c r="A147" s="18"/>
       <c r="B147" s="21"/>
       <c r="C147" s="34" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="148" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
       <c r="A148" s="18"/>
-      <c r="B148" s="21"/>
-      <c r="C148" s="34" t="s">
-        <v>690</v>
-      </c>
+      <c r="B148" s="22"/>
+      <c r="C148" s="34"/>
     </row>
     <row r="149" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A149" s="18"/>
-      <c r="B149" s="21"/>
+      <c r="A149" s="18" t="s">
+        <v>691</v>
+      </c>
+      <c r="B149" s="21" t="s">
+        <v>692</v>
+      </c>
       <c r="C149" s="34" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
     </row>
     <row r="150" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
       <c r="A150" s="18"/>
       <c r="B150" s="21"/>
       <c r="C150" s="34" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="151" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
       <c r="A151" s="18"/>
       <c r="B151" s="21"/>
       <c r="C151" s="34" t="s">
-        <v>693</v>
+        <v>604</v>
       </c>
     </row>
     <row r="152" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
@@ -10028,72 +10046,72 @@
       <c r="A153" s="18"/>
       <c r="B153" s="21"/>
       <c r="C153" s="34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="154" ht="9" customHeight="1" spans="1:3">
-      <c r="A154" s="24"/>
-      <c r="B154" s="24"/>
-      <c r="C154" s="24"/>
-    </row>
-    <row r="155" ht="24.75" spans="1:3">
-      <c r="A155" s="17" t="s">
         <v>695</v>
       </c>
-      <c r="B155" s="17"/>
-      <c r="C155" s="17"/>
-    </row>
-    <row r="156" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A156" s="18" t="s">
+    </row>
+    <row r="154" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A154" s="18"/>
+      <c r="B154" s="21"/>
+      <c r="C154" s="34" t="s">
         <v>696</v>
       </c>
-      <c r="B156" s="21" t="s">
+    </row>
+    <row r="155" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A155" s="18"/>
+      <c r="B155" s="21"/>
+      <c r="C155" s="34" t="s">
         <v>697</v>
       </c>
+    </row>
+    <row r="156" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A156" s="18"/>
+      <c r="B156" s="21"/>
       <c r="C156" s="34" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="157" ht="18.75" customHeight="1" spans="1:3">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="157" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
       <c r="A157" s="18"/>
       <c r="B157" s="21"/>
       <c r="C157" s="34" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="158" ht="18.75" customHeight="1" spans="1:3">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="158" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
       <c r="A158" s="18"/>
       <c r="B158" s="21"/>
       <c r="C158" s="34" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="159" ht="18.75" customHeight="1" spans="1:3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="159" customFormat="1" ht="14.25" customHeight="1" spans="1:3">
       <c r="A159" s="18"/>
       <c r="B159" s="21"/>
       <c r="C159" s="34" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="160" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A160" s="18"/>
-      <c r="B160" s="21"/>
-      <c r="C160" s="34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="160" ht="9" customHeight="1" spans="1:3">
+      <c r="A160" s="24"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="24"/>
+    </row>
+    <row r="161" ht="24.75" spans="1:3">
+      <c r="A161" s="17" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="161" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A161" s="18"/>
-      <c r="B161" s="21"/>
-      <c r="C161" s="34" t="s">
+      <c r="B161" s="17"/>
+      <c r="C161" s="17"/>
+    </row>
+    <row r="162" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A162" s="18" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="162" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A162" s="18"/>
-      <c r="B162" s="21"/>
+      <c r="B162" s="21" t="s">
+        <v>703</v>
+      </c>
       <c r="C162" s="34" t="s">
-        <v>703</v>
+        <v>673</v>
       </c>
     </row>
     <row r="163" ht="18.75" customHeight="1" spans="1:3">
@@ -10149,65 +10167,65 @@
       <c r="A170" s="18"/>
       <c r="B170" s="21"/>
       <c r="C170" s="34" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="171" ht="14.25" customHeight="1" spans="1:3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="171" ht="18.75" customHeight="1" spans="1:3">
       <c r="A171" s="18"/>
-      <c r="B171" s="22"/>
-      <c r="C171" s="34"/>
-    </row>
-    <row r="172" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A172" s="18" t="s">
-        <v>711</v>
-      </c>
-      <c r="B172" s="21" t="s">
+      <c r="B171" s="21"/>
+      <c r="C171" s="34" t="s">
         <v>712</v>
       </c>
+    </row>
+    <row r="172" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A172" s="18"/>
+      <c r="B172" s="21"/>
       <c r="C172" s="34" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="173" ht="14.25" customHeight="1" spans="1:3">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="173" ht="18.75" customHeight="1" spans="1:3">
       <c r="A173" s="18"/>
       <c r="B173" s="21"/>
       <c r="C173" s="34" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="174" ht="14.25" customHeight="1" spans="1:3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="174" ht="18.75" customHeight="1" spans="1:3">
       <c r="A174" s="18"/>
       <c r="B174" s="21"/>
       <c r="C174" s="34" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="175" ht="14.25" customHeight="1" spans="1:3">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="175" ht="18.75" customHeight="1" spans="1:3">
       <c r="A175" s="18"/>
       <c r="B175" s="21"/>
       <c r="C175" s="34" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="176" ht="14.25" customHeight="1" spans="1:3">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="176" ht="18.75" customHeight="1" spans="1:3">
       <c r="A176" s="18"/>
       <c r="B176" s="21"/>
       <c r="C176" s="34" t="s">
-        <v>716</v>
+        <v>501</v>
       </c>
     </row>
     <row r="177" ht="14.25" customHeight="1" spans="1:3">
       <c r="A177" s="18"/>
-      <c r="B177" s="21"/>
-      <c r="C177" s="34" t="s">
+      <c r="B177" s="22"/>
+      <c r="C177" s="34"/>
+    </row>
+    <row r="178" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A178" s="18" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="178" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A178" s="18"/>
-      <c r="B178" s="21"/>
+      <c r="B178" s="21" t="s">
+        <v>718</v>
+      </c>
       <c r="C178" s="34" t="s">
-        <v>718</v>
+        <v>673</v>
       </c>
     </row>
     <row r="179" ht="14.25" customHeight="1" spans="1:3">
@@ -10270,71 +10288,113 @@
       <c r="A187" s="18"/>
       <c r="B187" s="21"/>
       <c r="C187" s="34" t="s">
-        <v>617</v>
+        <v>727</v>
       </c>
     </row>
     <row r="188" ht="14.25" customHeight="1" spans="1:3">
       <c r="A188" s="18"/>
-      <c r="B188" s="22"/>
-      <c r="C188" s="34"/>
+      <c r="B188" s="21"/>
+      <c r="C188" s="34" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="189" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A189" s="18" t="s">
-        <v>727</v>
-      </c>
-      <c r="B189" s="21" t="s">
-        <v>728</v>
-      </c>
-      <c r="C189" s="38" t="s">
+      <c r="A189" s="18"/>
+      <c r="B189" s="21"/>
+      <c r="C189" s="34" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="190" ht="14.25" customHeight="1" spans="1:3">
       <c r="A190" s="18"/>
       <c r="B190" s="21"/>
-      <c r="C190" s="38" t="s">
+      <c r="C190" s="34" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="191" ht="14.25" customHeight="1" spans="1:3">
       <c r="A191" s="18"/>
       <c r="B191" s="21"/>
-      <c r="C191" s="38" t="s">
+      <c r="C191" s="34" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="192" ht="14.25" customHeight="1" spans="1:3">
       <c r="A192" s="18"/>
       <c r="B192" s="21"/>
-      <c r="C192" s="38" t="s">
+      <c r="C192" s="34" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="193" ht="14.25" customHeight="1" spans="1:3">
       <c r="A193" s="18"/>
       <c r="B193" s="21"/>
-      <c r="C193" s="38" t="s">
+      <c r="C193" s="34" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="194" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A194" s="18"/>
+      <c r="B194" s="22"/>
+      <c r="C194" s="34"/>
+    </row>
+    <row r="195" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A195" s="18" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="194" ht="9" customHeight="1" spans="1:3">
-      <c r="A194" s="24"/>
-      <c r="B194" s="24"/>
-      <c r="C194" s="24"/>
-    </row>
-    <row r="198" ht="56.25" spans="1:2">
-      <c r="A198" s="39" t="s">
+      <c r="B195" s="21" t="s">
         <v>734</v>
       </c>
-      <c r="B198" s="40">
+      <c r="C195" s="38" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="196" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A196" s="18"/>
+      <c r="B196" s="21"/>
+      <c r="C196" s="38" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="197" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A197" s="18"/>
+      <c r="B197" s="21"/>
+      <c r="C197" s="38" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="198" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A198" s="18"/>
+      <c r="B198" s="21"/>
+      <c r="C198" s="38" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="199" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A199" s="18"/>
+      <c r="B199" s="21"/>
+      <c r="C199" s="38" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="200" ht="9" customHeight="1" spans="1:3">
+      <c r="A200" s="24"/>
+      <c r="B200" s="24"/>
+      <c r="C200" s="24"/>
+    </row>
+    <row r="204" ht="56.25" spans="1:2">
+      <c r="A204" s="39" t="s">
+        <v>740</v>
+      </c>
+      <c r="B204" s="40">
         <v>5</v>
       </c>
     </row>
-    <row r="199" ht="56.25" spans="1:2">
-      <c r="A199" s="39" t="s">
-        <v>735</v>
-      </c>
-      <c r="B199" s="40">
+    <row r="205" ht="56.25" spans="1:2">
+      <c r="A205" s="39" t="s">
+        <v>741</v>
+      </c>
+      <c r="B205" s="40">
         <v>40</v>
       </c>
     </row>
@@ -10345,21 +10405,21 @@
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A161:C161"/>
     <mergeCell ref="A4:A36"/>
     <mergeCell ref="A40:A49"/>
     <mergeCell ref="A51:A69"/>
     <mergeCell ref="A72:A85"/>
-    <mergeCell ref="A87:A98"/>
-    <mergeCell ref="A100:A117"/>
-    <mergeCell ref="A121:A126"/>
-    <mergeCell ref="A128:A141"/>
-    <mergeCell ref="A143:A153"/>
-    <mergeCell ref="A156:A170"/>
-    <mergeCell ref="A172:A187"/>
-    <mergeCell ref="A189:A193"/>
+    <mergeCell ref="A87:A104"/>
+    <mergeCell ref="A106:A123"/>
+    <mergeCell ref="A127:A132"/>
+    <mergeCell ref="A134:A147"/>
+    <mergeCell ref="A149:A159"/>
+    <mergeCell ref="A162:A176"/>
+    <mergeCell ref="A178:A193"/>
+    <mergeCell ref="A195:A199"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="B12:B20"/>
     <mergeCell ref="B22:B33"/>
@@ -10369,15 +10429,15 @@
     <mergeCell ref="B68:B69"/>
     <mergeCell ref="B72:B82"/>
     <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B87:B98"/>
-    <mergeCell ref="B100:B115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="B128:B141"/>
-    <mergeCell ref="B143:B153"/>
-    <mergeCell ref="B156:B170"/>
-    <mergeCell ref="B172:B187"/>
-    <mergeCell ref="B189:B193"/>
+    <mergeCell ref="B87:B104"/>
+    <mergeCell ref="B106:B121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B129:B132"/>
+    <mergeCell ref="B134:B147"/>
+    <mergeCell ref="B149:B159"/>
+    <mergeCell ref="B162:B176"/>
+    <mergeCell ref="B178:B193"/>
+    <mergeCell ref="B195:B199"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -10390,7 +10450,7 @@
   <sheetPr/>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C57" sqref="C57:C58"/>
@@ -10418,14 +10478,14 @@
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>20</v>
@@ -10442,7 +10502,7 @@
     <row r="5" ht="15" customHeight="1" spans="1:3">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>22</v>
@@ -10452,49 +10512,49 @@
       <c r="A6" s="4"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:3">
       <c r="A7" s="4"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:3">
       <c r="A8" s="4"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:3">
       <c r="A9" s="4"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:3">
       <c r="A10" s="4"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:3">
       <c r="A11" s="4"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:3">
       <c r="A12" s="4"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:3">
@@ -10510,7 +10570,7 @@
     <row r="15" ht="15" customHeight="1" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="7" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>22</v>
@@ -10520,56 +10580,56 @@
       <c r="A16" s="4"/>
       <c r="B16" s="7"/>
       <c r="C16" s="6" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:3">
       <c r="A17" s="4"/>
       <c r="B17" s="7"/>
       <c r="C17" s="6" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:3">
       <c r="A18" s="4"/>
       <c r="B18" s="7"/>
       <c r="C18" s="6" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:3">
       <c r="A19" s="4"/>
       <c r="B19" s="7"/>
       <c r="C19" s="6" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:3">
       <c r="A20" s="4"/>
       <c r="B20" s="7"/>
       <c r="C20" s="6" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:3">
       <c r="A21" s="4"/>
       <c r="B21" s="7"/>
       <c r="C21" s="6" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:3">
       <c r="A22" s="4"/>
       <c r="B22" s="7"/>
       <c r="C22" s="6" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:3">
       <c r="A23" s="4"/>
       <c r="B23" s="7"/>
       <c r="C23" s="6" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:3">
@@ -10587,7 +10647,7 @@
     <row r="26" ht="15" customHeight="1" spans="1:3">
       <c r="A26" s="4"/>
       <c r="B26" s="7" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>22</v>
@@ -10597,56 +10657,56 @@
       <c r="A27" s="4"/>
       <c r="B27" s="7"/>
       <c r="C27" s="6" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:3">
       <c r="A28" s="4"/>
       <c r="B28" s="7"/>
       <c r="C28" s="6" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:3">
       <c r="A29" s="4"/>
       <c r="B29" s="7"/>
       <c r="C29" s="6" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:3">
       <c r="A30" s="4"/>
       <c r="B30" s="7"/>
       <c r="C30" s="6" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:3">
       <c r="A31" s="4"/>
       <c r="B31" s="7"/>
       <c r="C31" s="6" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:3">
       <c r="A32" s="4"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:3">
       <c r="A33" s="4"/>
       <c r="B33" s="7"/>
       <c r="C33" s="6" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:3">
       <c r="A34" s="4"/>
       <c r="B34" s="7"/>
       <c r="C34" s="6" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:3">
@@ -10664,7 +10724,7 @@
     <row r="37" ht="15" customHeight="1" spans="1:3">
       <c r="A37" s="4"/>
       <c r="B37" s="7" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>22</v>
@@ -10674,56 +10734,56 @@
       <c r="A38" s="4"/>
       <c r="B38" s="7"/>
       <c r="C38" s="6" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:3">
       <c r="A39" s="4"/>
       <c r="B39" s="7"/>
       <c r="C39" s="6" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:3">
       <c r="A40" s="4"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:3">
       <c r="A41" s="4"/>
       <c r="B41" s="7"/>
       <c r="C41" s="6" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:3">
       <c r="A42" s="4"/>
       <c r="B42" s="7"/>
       <c r="C42" s="6" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:3">
       <c r="A43" s="4"/>
       <c r="B43" s="7"/>
       <c r="C43" s="6" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:3">
       <c r="A44" s="4"/>
       <c r="B44" s="7"/>
       <c r="C44" s="6" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" spans="1:3">
       <c r="A45" s="4"/>
       <c r="B45" s="7"/>
       <c r="C45" s="6" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:3">
@@ -10741,17 +10801,17 @@
     <row r="48" ht="15" customHeight="1" spans="1:3">
       <c r="A48" s="4"/>
       <c r="B48" s="9" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
       <c r="A49" s="4"/>
       <c r="B49" s="9"/>
       <c r="C49" s="11" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
     </row>
     <row r="50" ht="9" customHeight="1" spans="1:3">
@@ -10761,7 +10821,7 @@
     </row>
     <row r="54" ht="18.75" spans="1:2">
       <c r="A54" s="13" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="B54" s="14">
         <v>1</v>
@@ -10769,7 +10829,7 @@
     </row>
     <row r="55" ht="18.75" spans="1:2">
       <c r="A55" s="13" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="B55" s="14">
         <v>8</v>
